--- a/Income/DRE_inc.xlsx
+++ b/Income/DRE_inc.xlsx
@@ -2175,16 +2175,16 @@
         <v>0.3005</v>
       </c>
       <c r="D17" s="0" t="n">
-        <v>0.2261</v>
+        <v>0.2265</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.3967</v>
+        <v>0.3971</v>
       </c>
       <c r="F17" s="0" t="n">
-        <v>0.4311</v>
+        <v>0.4315</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.4402</v>
+        <v>0.4405</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.4004</v>
@@ -2296,22 +2296,22 @@
         </is>
       </c>
       <c r="B18" s="0" t="n">
-        <v>0.0</v>
+        <v>-0.3898</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>-0.5572</v>
+        <v>-0.4972</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>-0.6478</v>
+        <v>-0.655</v>
       </c>
       <c r="E18" s="0" t="n">
-        <v>0.1209</v>
+        <v>0.0908</v>
       </c>
       <c r="F18" s="0" t="n">
-        <v>0.0737</v>
+        <v>-0.2969</v>
       </c>
       <c r="G18" s="0" t="n">
-        <v>-0.3187</v>
+        <v>-0.3476</v>
       </c>
       <c r="H18" s="0" t="n">
         <v>-0.2611</v>
@@ -2422,10 +2422,8 @@
           <t>EBITDA</t>
         </is>
       </c>
-      <c r="B19" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B19" s="0" t="n">
+        <v>836493000.0</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>780014000.0</v>
@@ -2679,19 +2677,19 @@
         </is>
       </c>
       <c r="B21" s="0" t="n">
-        <v>0.9573</v>
+        <v>0.96</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>0.8</v>
       </c>
       <c r="D21" s="0" t="n">
-        <v>0.5892</v>
+        <v>0.5865</v>
       </c>
       <c r="E21" s="0" t="n">
-        <v>1.0192</v>
+        <v>1.0165</v>
       </c>
       <c r="F21" s="0" t="n">
-        <v>1.1092</v>
+        <v>1.1065</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>1.18</v>
@@ -3191,19 +3189,19 @@
         </is>
       </c>
       <c r="B25" s="0" t="n">
-        <v>0.9667</v>
+        <v>0.97</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>0.81</v>
       </c>
       <c r="D25" s="0" t="n">
-        <v>0.5886</v>
+        <v>0.5853</v>
       </c>
       <c r="E25" s="0" t="n">
-        <v>1.0186</v>
+        <v>1.0153</v>
       </c>
       <c r="F25" s="0" t="n">
-        <v>1.1086</v>
+        <v>1.1053</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>1.18</v>
@@ -3703,7 +3701,7 @@
         </is>
       </c>
       <c r="B29" s="0" t="n">
-        <v>0.0</v>
+        <v>0.792</v>
       </c>
       <c r="C29" s="0" t="n">
         <v>0.7854</v>
@@ -3830,22 +3828,22 @@
         </is>
       </c>
       <c r="B30" s="0" t="n">
-        <v>0.0</v>
+        <v>0.5709</v>
       </c>
       <c r="C30" s="0" t="n">
         <v>0.5712</v>
       </c>
       <c r="D30" s="0" t="n">
-        <v>0.5951</v>
+        <v>0.5657</v>
       </c>
       <c r="E30" s="0" t="n">
-        <v>0.5737</v>
+        <v>0.5437</v>
       </c>
       <c r="F30" s="0" t="n">
-        <v>0.571</v>
+        <v>0.5409</v>
       </c>
       <c r="G30" s="0" t="n">
-        <v>0.5484</v>
+        <v>0.5195</v>
       </c>
       <c r="H30" s="0" t="n">
         <v>0.5096</v>
